--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value50.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value50.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6526331457912147</v>
+        <v>1.633908748626709</v>
       </c>
       <c r="B1">
-        <v>1.158625035279043</v>
+        <v>2.457040786743164</v>
       </c>
       <c r="C1">
-        <v>2.855572927735578</v>
+        <v>5.051864147186279</v>
       </c>
       <c r="D1">
-        <v>3.392676941232593</v>
+        <v>3.878090858459473</v>
       </c>
       <c r="E1">
-        <v>1.477453076361522</v>
+        <v>1.861559152603149</v>
       </c>
     </row>
   </sheetData>
